--- a/medicine/Mort/Cimetière_militaire_belge_d'Adinkerque/Cimetière_militaire_belge_d'Adinkerque.xlsx
+++ b/medicine/Mort/Cimetière_militaire_belge_d'Adinkerque/Cimetière_militaire_belge_d'Adinkerque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_belge_d%27Adinkerque</t>
+          <t>Cimetière_militaire_belge_d'Adinkerque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière militaire belge d'Adinkerque est un cimetière militaire situé sur la Heldenweg (le chemin des Héros) dans le village belge d'Adinkerque (La Panne)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière militaire belge d'Adinkerque est un cimetière militaire situé sur la Heldenweg (le chemin des Héros) dans le village belge d'Adinkerque (La Panne).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_belge_d%27Adinkerque</t>
+          <t>Cimetière_militaire_belge_d'Adinkerque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière a une superficie de 101 ares et contient 1 783 tombes de soldats tombés lors de la Première Guerre mondiale. Parmi les tombes de soldats belges, il y a également 67 tombes de soldats britanniques. Un soldat français est, à la demande de ses parents, enterré sous une pierre tombale belge. Les soldats qui reposent dans ce cimetière sont décédés à l'hôpital militaire belge l'Océan situé à La Panne.
 Au milieu des années 1920, un type unique de pierres tombales militaires belge fut introduit. Cela conduit en 1925 à la destruction et au remplacement de 130 « croix de héros » flamandes (Heldenhuldezerkje). Les pièces brisées furent incorporées au pavement du cimetière.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_belge_d%27Adinkerque</t>
+          <t>Cimetière_militaire_belge_d'Adinkerque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(nl) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en néerlandais intitulé « Belgische militaire begraafplaats van Adinkerke » (voir la liste des auteurs).</t>
         </is>
